--- a/medicine/Bioéthique/Liste_de_festivals_végétariens_et_végans/Liste_de_festivals_végétariens_et_végans.xlsx
+++ b/medicine/Bioéthique/Liste_de_festivals_végétariens_et_végans/Liste_de_festivals_végétariens_et_végans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_festivals_v%C3%A9g%C3%A9tariens_et_v%C3%A9gans</t>
+          <t>Liste_de_festivals_végétariens_et_végans</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet article présente une liste de festivals végétariens et végans à travers le monde[1],[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet article présente une liste de festivals végétariens et végans à travers le monde.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_festivals_v%C3%A9g%C3%A9tariens_et_v%C3%A9gans</t>
+          <t>Liste_de_festivals_végétariens_et_végans</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,34 +525,175 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Allemagne
-Vegan Street Day
+          <t>Allemagne</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Vegan Street Day
 VegFest Berlin
 VeggieWorld Berlin
 VeggieWorld Düsseldorf
 VeggieWorld Hamburg
 VeggieWorld Hannover
-VeggieWorld Rhein
-Australie
-Brisbane Vegan Festival
+VeggieWorld Rhein</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_de_festivals_végétariens_et_végans</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_festivals_v%C3%A9g%C3%A9tariens_et_v%C3%A9gans</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste par pays</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Australie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Brisbane Vegan Festival
 Cruelty-Free Festival
 Living Green Festival (Canberra)
 Vegan Festival (Adelaide, South Australia)
-Journée mondiale du véganisme
-Belgique
-Ieper Hardcore Fest
+Journée mondiale du véganisme</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_de_festivals_végétariens_et_végans</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_festivals_v%C3%A9g%C3%A9tariens_et_v%C3%A9gans</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste par pays</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Belgique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Ieper Hardcore Fest
 Vegan Summerfest (Ghent)
-VeggieWorld Brüssel
-Brésil
-VegFest
-Canada
-Arion Therapeutic Farm (Kelowna, BC)
+VeggieWorld Brüssel</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_de_festivals_végétariens_et_végans</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_festivals_v%C3%A9g%C3%A9tariens_et_v%C3%A9gans</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste par pays</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Brésil</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>VegFest</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_de_festivals_végétariens_et_végans</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_festivals_v%C3%A9g%C3%A9tariens_et_v%C3%A9gans</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste par pays</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Arion Therapeutic Farm (Kelowna, BC)
 Guelph, Ontario VegFest
 Halifax, Nova Scotia VegFest
 Hamilton, Ontario VegFest
 Kingston VegFest (Ontario)
 London, Ontario VegFest
-Montreal Vegan Festival[4]
+Montreal Vegan Festival
 Niagara VegFest
 Ottawa Veg Fest
 Sarnia VegFest (Ontario)
@@ -548,20 +701,190 @@
 VegExpo Canada (Vancouver, BC)
 VegToria VegFest (Vancouver, BC)
 Victoria, BC Vegan Fest
-Toronto Vegetarian Food Festival
-Corée du sud
-Vegan Festival Korea
-Écosse
-VegFest Scotland
-Espagne
-VeggieWorld Barcelona
+Toronto Vegetarian Food Festival</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_de_festivals_végétariens_et_végans</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_festivals_v%C3%A9g%C3%A9tariens_et_v%C3%A9gans</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste par pays</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Corée du sud</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Vegan Festival Korea</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_de_festivals_végétariens_et_végans</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_festivals_v%C3%A9g%C3%A9tariens_et_v%C3%A9gans</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste par pays</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Écosse</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>VegFest Scotland</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_de_festivals_végétariens_et_végans</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_festivals_v%C3%A9g%C3%A9tariens_et_v%C3%A9gans</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste par pays</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Espagne</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>VeggieWorld Barcelona
 Vegan Fest Alicante
 Vegan Day out Festival
-Vegan Street Food &amp; Market Festival
-Estonie
-Taimetoidumess
-États-Unis
-Alaska
+Vegan Street Food &amp; Market Festival</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_de_festivals_végétariens_et_végans</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_festivals_v%C3%A9g%C3%A9tariens_et_v%C3%A9gans</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liste par pays</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Estonie</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Taimetoidumess</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_de_festivals_végétariens_et_végans</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_festivals_v%C3%A9g%C3%A9tariens_et_v%C3%A9gans</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Liste par pays</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>États-Unis</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Alaska
 Alaska VegFest
 Arizona
 Arizona Vegetarian Food Festival
@@ -690,54 +1013,667 @@
 Wisconsin
 Madison Vegan Fest
 Midwest Vegan Fest
-Milwaukee Veg Expo
-France
-VeggieWorld Paris (printemps)
+Milwaukee Veg Expo</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_de_festivals_végétariens_et_végans</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_festivals_v%C3%A9g%C3%A9tariens_et_v%C3%A9gans</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Liste par pays</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>VeggieWorld Paris (printemps)
 VeggieWorld Paris (automne)
 Smmmile Festival (Paris)
 Festival Odyssée (Vendée)
 Les Végés de l'Encan (La Rochelle)
 Ginger Juice Festival (Paris)
 Do Veggie Fa Sol Festival (Noisiel)
-Le Festin du Turfu : Festival de cuisine végétale (Strasbourg)
-Grèce
-Vegan Life Festival (plusieurs villes)
-Hong Kong
-Hong Kong Veg Fest
-Inde
-Satvik Vegan Festival
-Indonésie
-Bali Vegan Festival
-Irlande
-Dublin Vegfest
-Cork Vegfest
-Israël
-Vegan Fest (Tel Aviv)
-Italie
-VeganFest (Bologna)
-Japon
-Vegan Gourmet Festivals (plusieurs villes)
-Luxembourg
-Koll an Aktioun (Martelange)
-Mexique
-Tulum Veg Fest
-Nigeria
-Lagos VegFest
-Norvège
-Olso VegetarFestival
-Vegansk Julefestival
-Nouvelle-Zélande
-Vegan Camp (Hammer Springs)
-Vegan Expo (plusieurs villes)
-Pays-Bas
-VeggieWorld Utrecht
-VegFestNL Vegenement
-République Tchèque
-Prague VegFest
-Roumanie
-Raw Generation Expo (Bucharest)
-Royaume-Uni
-Absolutely Fabulous Vegan Festival
+Le Festin du Turfu : Festival de cuisine végétale (Strasbourg)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_de_festivals_végétariens_et_végans</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_festivals_v%C3%A9g%C3%A9tariens_et_v%C3%A9gans</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Liste par pays</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Grèce</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Vegan Life Festival (plusieurs villes)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_de_festivals_végétariens_et_végans</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_festivals_v%C3%A9g%C3%A9tariens_et_v%C3%A9gans</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Liste par pays</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hong Kong Veg Fest
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liste_de_festivals_végétariens_et_végans</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_festivals_v%C3%A9g%C3%A9tariens_et_v%C3%A9gans</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Liste par pays</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Inde</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Satvik Vegan Festival</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Liste_de_festivals_végétariens_et_végans</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_festivals_v%C3%A9g%C3%A9tariens_et_v%C3%A9gans</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Liste par pays</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Indonésie</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Bali Vegan Festival</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Liste_de_festivals_végétariens_et_végans</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_festivals_v%C3%A9g%C3%A9tariens_et_v%C3%A9gans</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Liste par pays</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Irlande</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Dublin Vegfest
+Cork Vegfest</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Liste_de_festivals_végétariens_et_végans</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_festivals_v%C3%A9g%C3%A9tariens_et_v%C3%A9gans</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Liste par pays</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Israël</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Vegan Fest (Tel Aviv)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Liste_de_festivals_végétariens_et_végans</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_festivals_v%C3%A9g%C3%A9tariens_et_v%C3%A9gans</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Liste par pays</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Italie</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>VeganFest (Bologna)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Liste_de_festivals_végétariens_et_végans</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_festivals_v%C3%A9g%C3%A9tariens_et_v%C3%A9gans</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Liste par pays</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Japon</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Vegan Gourmet Festivals (plusieurs villes)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Liste_de_festivals_végétariens_et_végans</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_festivals_v%C3%A9g%C3%A9tariens_et_v%C3%A9gans</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Liste par pays</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Luxembourg</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Koll an Aktioun (Martelange)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Liste_de_festivals_végétariens_et_végans</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_festivals_v%C3%A9g%C3%A9tariens_et_v%C3%A9gans</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Liste par pays</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Mexique</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Tulum Veg Fest</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Liste_de_festivals_végétariens_et_végans</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_festivals_v%C3%A9g%C3%A9tariens_et_v%C3%A9gans</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Liste par pays</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Lagos VegFest</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Liste_de_festivals_végétariens_et_végans</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_festivals_v%C3%A9g%C3%A9tariens_et_v%C3%A9gans</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Liste par pays</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Norvège</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Olso VegetarFestival
+Vegansk Julefestival</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Liste_de_festivals_végétariens_et_végans</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_festivals_v%C3%A9g%C3%A9tariens_et_v%C3%A9gans</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Liste par pays</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Nouvelle-Zélande</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Vegan Camp (Hammer Springs)
+Vegan Expo (plusieurs villes)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Liste_de_festivals_végétariens_et_végans</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_festivals_v%C3%A9g%C3%A9tariens_et_v%C3%A9gans</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Liste par pays</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Pays-Bas</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>VeggieWorld Utrecht
+VegFestNL Vegenement</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Liste_de_festivals_végétariens_et_végans</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_festivals_v%C3%A9g%C3%A9tariens_et_v%C3%A9gans</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Liste par pays</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>République Tchèque</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Prague VegFest</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Liste_de_festivals_végétariens_et_végans</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_festivals_v%C3%A9g%C3%A9tariens_et_v%C3%A9gans</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Liste par pays</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Roumanie</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Raw Generation Expo (Bucharest)</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Liste_de_festivals_végétariens_et_végans</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_festivals_v%C3%A9g%C3%A9tariens_et_v%C3%A9gans</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Liste par pays</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Royaume-Uni</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Absolutely Fabulous Vegan Festival
 Bournemouth Vegan Fair
 Bradford Vegan Festival
 Brighton Vegan Beer Festival
@@ -780,13 +1716,115 @@
 VegFestUK London
 VFP Vegan Festival
 Walsall Vegan Fair
-West Yorkshire Vegan Festival
-Slovaquie
-Slovakia- Bratislava VegFest
-Suisse
-VeggieWorld Zurich
-Turquie
-Didim Vegfest</t>
+West Yorkshire Vegan Festival</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Liste_de_festivals_végétariens_et_végans</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_festivals_v%C3%A9g%C3%A9tariens_et_v%C3%A9gans</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Liste par pays</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Slovaquie</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Slovakia- Bratislava VegFest</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Liste_de_festivals_végétariens_et_végans</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_festivals_v%C3%A9g%C3%A9tariens_et_v%C3%A9gans</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Liste par pays</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Suisse</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>VeggieWorld Zurich</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Liste_de_festivals_végétariens_et_végans</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_festivals_v%C3%A9g%C3%A9tariens_et_v%C3%A9gans</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Liste par pays</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Turquie</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Didim Vegfest</t>
         </is>
       </c>
     </row>
